--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5550380275832496</v>
+        <v>0.7151258441532331</v>
       </c>
       <c r="D2">
-        <v>0.6325866281315589</v>
+        <v>0.7443100016536195</v>
       </c>
       <c r="E2">
-        <v>0.1944955567797131</v>
+        <v>0.3223909503759028</v>
       </c>
       <c r="F2">
-        <v>0.7373486617429905</v>
+        <v>0.8078318456422755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5550380275832496</v>
+        <v>0.7151258441532331</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9738279768961278</v>
+        <v>0.9715219719395836</v>
       </c>
       <c r="E3">
-        <v>0.5172958860814192</v>
+        <v>0.5067410597938991</v>
       </c>
       <c r="F3">
-        <v>0.270560071671301</v>
+        <v>0.1350894018918429</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6325866281315589</v>
+        <v>0.7443100016536195</v>
       </c>
       <c r="C4">
-        <v>0.9738279768961278</v>
+        <v>0.9715219719395836</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4721919759679909</v>
+        <v>0.5229438200122272</v>
       </c>
       <c r="F4">
-        <v>0.2441514759050063</v>
+        <v>0.2535418009996488</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1944955567797131</v>
+        <v>0.3223909503759028</v>
       </c>
       <c r="C5">
-        <v>0.5172958860814192</v>
+        <v>0.5067410597938991</v>
       </c>
       <c r="D5">
-        <v>0.4721919759679909</v>
+        <v>0.5229438200122272</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.04347315184254086</v>
+        <v>0.08083871874502124</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7373486617429905</v>
+        <v>0.8078318456422755</v>
       </c>
       <c r="C6">
-        <v>0.270560071671301</v>
+        <v>0.1350894018918429</v>
       </c>
       <c r="D6">
-        <v>0.2441514759050063</v>
+        <v>0.2535418009996488</v>
       </c>
       <c r="E6">
-        <v>0.04347315184254086</v>
+        <v>0.08083871874502124</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5903659550481646</v>
+        <v>0.3697205411379265</v>
       </c>
       <c r="D2">
-        <v>0.4781913878571427</v>
+        <v>0.330284015152658</v>
       </c>
       <c r="E2">
-        <v>1.297999372865163</v>
+        <v>1.012317899114806</v>
       </c>
       <c r="F2">
-        <v>-0.3354312899284282</v>
+        <v>-0.2461713678837381</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.5903659550481646</v>
+        <v>-0.3697205411379265</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.03281335734666662</v>
+        <v>-0.03610787837850123</v>
       </c>
       <c r="E3">
-        <v>0.6476790293599478</v>
+        <v>0.6749477410825059</v>
       </c>
       <c r="F3">
-        <v>-1.102197624593145</v>
+        <v>-1.551333474605084</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.4781913878571427</v>
+        <v>-0.330284015152658</v>
       </c>
       <c r="C4">
-        <v>0.03281335734666662</v>
+        <v>0.03610787837850123</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.719106635704493</v>
+        <v>0.6491775104341889</v>
       </c>
       <c r="F4">
-        <v>-1.165149775294236</v>
+        <v>-1.172486885121617</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.297999372865163</v>
+        <v>-1.012317899114806</v>
       </c>
       <c r="C5">
-        <v>-0.6476790293599478</v>
+        <v>-0.6749477410825059</v>
       </c>
       <c r="D5">
-        <v>-0.719106635704493</v>
+        <v>-0.6491775104341889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.020917822806621</v>
+        <v>-1.829968784687759</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3354312899284282</v>
+        <v>0.2461713678837381</v>
       </c>
       <c r="C6">
-        <v>1.102197624593145</v>
+        <v>1.551333474605084</v>
       </c>
       <c r="D6">
-        <v>1.165149775294236</v>
+        <v>1.172486885121617</v>
       </c>
       <c r="E6">
-        <v>2.020917822806621</v>
+        <v>1.829968784687759</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7151258441532331</v>
+        <v>0.5614327183249146</v>
       </c>
       <c r="D2">
-        <v>0.7443100016536195</v>
+        <v>0.9174103241714937</v>
       </c>
       <c r="E2">
-        <v>0.3223909503759028</v>
+        <v>0.3743446806431197</v>
       </c>
       <c r="F2">
-        <v>0.8078318456422755</v>
+        <v>0.4624333390915039</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7151258441532331</v>
+        <v>0.5614327183249146</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9715219719395836</v>
+        <v>0.4167304224571147</v>
       </c>
       <c r="E3">
-        <v>0.5067410597938991</v>
+        <v>0.3532420058888932</v>
       </c>
       <c r="F3">
-        <v>0.1350894018918429</v>
+        <v>0.3122206932280123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7443100016536195</v>
+        <v>0.9174103241714937</v>
       </c>
       <c r="C4">
-        <v>0.9715219719395836</v>
+        <v>0.4167304224571147</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5229438200122272</v>
+        <v>0.4922812932745222</v>
       </c>
       <c r="F4">
-        <v>0.2535418009996488</v>
+        <v>0.600151976509764</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3223909503759028</v>
+        <v>0.3743446806431197</v>
       </c>
       <c r="C5">
-        <v>0.5067410597938991</v>
+        <v>0.3532420058888932</v>
       </c>
       <c r="D5">
-        <v>0.5229438200122272</v>
+        <v>0.4922812932745222</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.08083871874502124</v>
+        <v>0.6511889257498948</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8078318456422755</v>
+        <v>0.4624333390915039</v>
       </c>
       <c r="C6">
-        <v>0.1350894018918429</v>
+        <v>0.3122206932280123</v>
       </c>
       <c r="D6">
-        <v>0.2535418009996488</v>
+        <v>0.600151976509764</v>
       </c>
       <c r="E6">
-        <v>0.08083871874502124</v>
+        <v>0.6511889257498948</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3697205411379265</v>
+        <v>0.5864713032417528</v>
       </c>
       <c r="D2">
-        <v>0.330284015152658</v>
+        <v>-0.1044698829236922</v>
       </c>
       <c r="E2">
-        <v>1.012317899114806</v>
+        <v>-0.9002024345201817</v>
       </c>
       <c r="F2">
-        <v>-0.2461713678837381</v>
+        <v>-0.7432536904062074</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3697205411379265</v>
+        <v>-0.5864713032417528</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.03610787837850123</v>
+        <v>-0.8221316403233336</v>
       </c>
       <c r="E3">
-        <v>0.6749477410825059</v>
+        <v>-0.9411999355501781</v>
       </c>
       <c r="F3">
-        <v>-1.551333474605084</v>
+        <v>-1.025817951325006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.330284015152658</v>
+        <v>0.1044698829236922</v>
       </c>
       <c r="C4">
-        <v>0.03610787837850123</v>
+        <v>0.8221316403233336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6491775104341889</v>
+        <v>-0.6941869534850285</v>
       </c>
       <c r="F4">
-        <v>-1.172486885121617</v>
+        <v>-0.5291316885900044</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.012317899114806</v>
+        <v>0.9002024345201817</v>
       </c>
       <c r="C5">
-        <v>-0.6749477410825059</v>
+        <v>0.9411999355501781</v>
       </c>
       <c r="D5">
-        <v>-0.6491775104341889</v>
+        <v>0.6941869534850285</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.829968784687759</v>
+        <v>0.4561410599838486</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2461713678837381</v>
+        <v>0.7432536904062074</v>
       </c>
       <c r="C6">
-        <v>1.551333474605084</v>
+        <v>1.025817951325006</v>
       </c>
       <c r="D6">
-        <v>1.172486885121617</v>
+        <v>0.5291316885900044</v>
       </c>
       <c r="E6">
-        <v>1.829968784687759</v>
+        <v>-0.4561410599838486</v>
       </c>
       <c r="F6">
         <v>0</v>
